--- a/EN020559200_DHU_ECP_V1.1_测试标注版.xlsx
+++ b/EN020559200_DHU_ECP_V1.1_测试标注版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9990" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="履历" sheetId="5" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1238,39 +1238,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1292,29 +1261,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,6 +1298,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1336,8 +1313,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1352,16 +1352,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,13 +1494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,121 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1530,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,13 +1620,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,6 +2055,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2071,16 +2086,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2089,7 +2104,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2112,8 +2127,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2121,23 +2136,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2158,10 +2158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2170,137 +2170,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2363,6 +2363,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7182,7 +7185,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="77">
         <v>44301</v>
       </c>
     </row>
@@ -7190,13 +7193,13 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="77">
         <v>44312</v>
       </c>
     </row>
@@ -7204,13 +7207,13 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="77">
         <v>44323</v>
       </c>
     </row>
@@ -7341,134 +7344,134 @@
       </c>
     </row>
     <row r="4" spans="2:29">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64" t="s">
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64" t="s">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="73" t="s">
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="64" t="s">
+      <c r="AA4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
     </row>
     <row r="5" spans="2:29">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="66" t="s">
+      <c r="O5" s="68"/>
+      <c r="P5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="66" t="s">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="66" t="s">
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65" t="s">
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="65" t="s">
+      <c r="AB5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="65" t="s">
+      <c r="AC5" s="66" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="14:25">
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="74"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="75"/>
     </row>
     <row r="7" spans="14:25">
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="75"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7495,9 +7498,9 @@
   <dimension ref="B1:W44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7586,7 +7589,7 @@
       <c r="V2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="W2" s="59" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7624,7 +7627,7 @@
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="59"/>
+      <c r="W3" s="60"/>
     </row>
     <row r="4" ht="71.25" spans="2:23">
       <c r="B4" s="10" t="s">
@@ -7660,7 +7663,7 @@
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="59"/>
+      <c r="W4" s="60"/>
     </row>
     <row r="5" ht="85.5" spans="2:23">
       <c r="B5" s="10" t="s">
@@ -7696,7 +7699,7 @@
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
-      <c r="W5" s="59"/>
+      <c r="W5" s="60"/>
     </row>
     <row r="6" ht="70.5" customHeight="1" spans="2:23">
       <c r="B6" s="10" t="s">
@@ -7734,7 +7737,7 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="59"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" ht="57" spans="2:23">
       <c r="B7" s="10" t="s">
@@ -7774,7 +7777,7 @@
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
-      <c r="W7" s="59"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" ht="128.25" spans="2:23">
       <c r="B8" s="10" t="s">
@@ -7812,7 +7815,7 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="59"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" ht="37.5" customHeight="1" spans="2:23">
       <c r="B9" s="10" t="s">
@@ -7848,7 +7851,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="59"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" ht="228" spans="2:23">
       <c r="B10" s="10" t="s">
@@ -7884,7 +7887,7 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="59"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" ht="42.75" spans="2:23">
       <c r="B11" s="10" t="s">
@@ -7920,7 +7923,7 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="59"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" ht="57" spans="2:23">
       <c r="B12" s="22" t="s">
@@ -7956,10 +7959,10 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="59"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" ht="28.5" spans="2:23">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -7992,7 +7995,7 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
-      <c r="W13" s="59"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" ht="57.75" customHeight="1" spans="2:23">
       <c r="B14" s="10" t="s">
@@ -8010,8 +8013,8 @@
       <c r="F14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="16"/>
@@ -8028,10 +8031,10 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="59"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" ht="42.75" spans="2:23">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -8064,36 +8067,36 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="59"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" ht="50.25" customHeight="1" spans="2:23">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="12">
         <v>8</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="54" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="31"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="32"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -8102,10 +8105,10 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" ht="43.5" customHeight="1" spans="2:23">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -8114,7 +8117,7 @@
       <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -8138,31 +8141,31 @@
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
-      <c r="W17" s="59"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" ht="63" customHeight="1" spans="2:23">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="38" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="39" t="s">
         <v>118</v>
       </c>
       <c r="L18" s="16"/>
@@ -8176,7 +8179,7 @@
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="59"/>
+      <c r="W18" s="60"/>
     </row>
     <row r="19" ht="41.25" customHeight="1" spans="2:23">
       <c r="B19" s="10" t="s">
@@ -8188,18 +8191,18 @@
       <c r="D19" s="12">
         <v>4</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -8212,7 +8215,7 @@
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
-      <c r="W19" s="59"/>
+      <c r="W19" s="60"/>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="2:23">
       <c r="B20" s="10" t="s">
@@ -8224,18 +8227,18 @@
       <c r="D20" s="12">
         <v>4</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="31"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -8248,7 +8251,7 @@
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
-      <c r="W20" s="59"/>
+      <c r="W20" s="60"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="2:23">
       <c r="B21" s="10" t="s">
@@ -8260,16 +8263,16 @@
       <c r="D21" s="12">
         <v>2</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
@@ -8284,7 +8287,7 @@
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
-      <c r="W21" s="59"/>
+      <c r="W21" s="60"/>
     </row>
     <row r="22" ht="30.75" customHeight="1" spans="2:23">
       <c r="B22" s="10" t="s">
@@ -8296,18 +8299,18 @@
       <c r="D22" s="12">
         <v>2</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="55"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="56"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -8320,7 +8323,7 @@
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
-      <c r="W22" s="59"/>
+      <c r="W22" s="60"/>
     </row>
     <row r="23" ht="29.25" customHeight="1" spans="2:23">
       <c r="B23" s="10" t="s">
@@ -8332,18 +8335,18 @@
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -8356,7 +8359,7 @@
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
-      <c r="W23" s="59"/>
+      <c r="W23" s="60"/>
     </row>
     <row r="24" ht="39.75" customHeight="1" spans="2:23">
       <c r="B24" s="10" t="s">
@@ -8368,25 +8371,25 @@
       <c r="D24" s="12">
         <v>9</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="54" t="s">
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="38" t="s">
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="39" t="s">
         <v>140</v>
       </c>
       <c r="P24" s="16"/>
@@ -8396,10 +8399,10 @@
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
-      <c r="W24" s="59"/>
+      <c r="W24" s="60"/>
     </row>
     <row r="25" ht="42.75" spans="2:23">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="23" t="s">
         <v>141</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -8408,29 +8411,29 @@
       <c r="D25" s="12">
         <v>9</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="34"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="L25" s="34"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="38" t="s">
+      <c r="N25" s="35"/>
+      <c r="O25" s="18" t="s">
         <v>148</v>
       </c>
       <c r="P25" s="16"/>
@@ -8440,10 +8443,10 @@
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
-      <c r="W25" s="60"/>
+      <c r="W25" s="61"/>
     </row>
     <row r="26" ht="42.75" customHeight="1" spans="2:23">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="23" t="s">
         <v>149</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -8452,28 +8455,28 @@
       <c r="D26" s="12">
         <v>16</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="L26" s="34"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="34"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -8482,10 +8485,10 @@
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
-      <c r="W26" s="60"/>
+      <c r="W26" s="61"/>
     </row>
     <row r="27" ht="62.25" customHeight="1" spans="2:23">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="23" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -8494,7 +8497,7 @@
       <c r="D27" s="12">
         <v>1</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -8503,13 +8506,13 @@
       <c r="G27" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="34"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="34"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -8518,19 +8521,19 @@
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
-      <c r="W27" s="60"/>
+      <c r="W27" s="61"/>
     </row>
     <row r="28" ht="28.5" spans="2:23">
       <c r="B28" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="37" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="14" t="s">
@@ -8554,19 +8557,19 @@
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
-      <c r="W28" s="59"/>
+      <c r="W28" s="60"/>
     </row>
     <row r="29" ht="28.5" spans="2:23">
       <c r="B29" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="36" t="s">
         <v>164</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="37" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="14" t="s">
@@ -8590,19 +8593,19 @@
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
-      <c r="W29" s="59"/>
+      <c r="W29" s="60"/>
     </row>
     <row r="30" ht="85.5" spans="2:23">
       <c r="B30" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="36" t="s">
         <v>167</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -8611,7 +8614,7 @@
       <c r="G30" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="39" t="s">
         <v>170</v>
       </c>
       <c r="I30" s="16"/>
@@ -8628,19 +8631,19 @@
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
-      <c r="W30" s="59"/>
+      <c r="W30" s="60"/>
     </row>
     <row r="31" ht="142.5" spans="2:23">
       <c r="B31" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="36" t="s">
         <v>172</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -8649,7 +8652,7 @@
       <c r="G31" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="39" t="s">
         <v>174</v>
       </c>
       <c r="I31" s="16"/>
@@ -8666,19 +8669,19 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
-      <c r="W31" s="59"/>
+      <c r="W31" s="60"/>
     </row>
     <row r="32" ht="57" spans="2:23">
       <c r="B32" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>176</v>
       </c>
       <c r="D32" s="12">
         <v>4</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="14" t="s">
@@ -8687,7 +8690,7 @@
       <c r="G32" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="39" t="s">
         <v>178</v>
       </c>
       <c r="I32" s="16" t="s">
@@ -8708,19 +8711,19 @@
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
-      <c r="W32" s="59"/>
+      <c r="W32" s="60"/>
     </row>
     <row r="33" ht="14.25" spans="2:23">
       <c r="B33" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>182</v>
       </c>
       <c r="D33" s="12">
         <v>1</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="14" t="s">
@@ -8744,19 +8747,19 @@
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
-      <c r="W33" s="59"/>
+      <c r="W33" s="60"/>
     </row>
     <row r="34" ht="28.5" spans="2:23">
       <c r="B34" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="36" t="s">
         <v>185</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F34" s="14" t="s">
@@ -8780,19 +8783,19 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
-      <c r="W34" s="59"/>
+      <c r="W34" s="60"/>
     </row>
     <row r="35" ht="28.5" spans="2:23">
       <c r="B35" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="36" t="s">
         <v>188</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="14" t="s">
@@ -8816,19 +8819,19 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
-      <c r="W35" s="59"/>
+      <c r="W35" s="60"/>
     </row>
     <row r="36" ht="42.75" spans="2:23">
       <c r="B36" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="36" t="s">
         <v>191</v>
       </c>
       <c r="D36" s="12">
         <v>4</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="40" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="14" t="s">
@@ -8840,10 +8843,10 @@
       <c r="H36" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="39" t="s">
         <v>195</v>
       </c>
       <c r="K36" s="16"/>
@@ -8858,19 +8861,19 @@
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
-      <c r="W36" s="59"/>
+      <c r="W36" s="60"/>
     </row>
     <row r="37" ht="14.25" spans="2:23">
       <c r="B37" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>197</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="40" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="14" t="s">
@@ -8894,19 +8897,19 @@
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
-      <c r="W37" s="59"/>
+      <c r="W37" s="60"/>
     </row>
     <row r="38" ht="42.75" spans="2:23">
       <c r="B38" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D38" s="12">
         <v>2</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="40" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="14" t="s">
@@ -8932,19 +8935,19 @@
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
-      <c r="W38" s="59"/>
+      <c r="W38" s="60"/>
     </row>
     <row r="39" ht="14.25" spans="2:23">
       <c r="B39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="36" t="s">
         <v>205</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="40" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="14" t="s">
@@ -8968,19 +8971,19 @@
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
-      <c r="W39" s="59"/>
+      <c r="W39" s="60"/>
     </row>
     <row r="40" ht="42.75" spans="2:23">
       <c r="B40" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="31" t="s">
         <v>208</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="40" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="14" t="s">
@@ -9004,22 +9007,22 @@
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
-      <c r="W40" s="59"/>
+      <c r="W40" s="60"/>
     </row>
     <row r="41" ht="42.75" spans="2:23">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="42">
         <v>1</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="43" t="s">
         <v>143</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -9040,19 +9043,19 @@
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
-      <c r="W41" s="59"/>
+      <c r="W41" s="60"/>
     </row>
     <row r="42" ht="114" spans="2:23">
       <c r="B42" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="31" t="s">
         <v>215</v>
       </c>
       <c r="D42" s="12">
         <v>2</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="44" t="s">
         <v>77</v>
       </c>
       <c r="F42" s="14" t="s">
@@ -9061,7 +9064,7 @@
       <c r="G42" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H42" s="38" t="s">
+      <c r="H42" s="39" t="s">
         <v>217</v>
       </c>
       <c r="I42" s="16"/>
@@ -9078,33 +9081,33 @@
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
-      <c r="W42" s="59"/>
+      <c r="W42" s="60"/>
     </row>
     <row r="43" ht="78.75" customHeight="1" spans="2:23">
       <c r="B43" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="36" t="s">
         <v>219</v>
       </c>
       <c r="D43" s="12">
         <v>8</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="45" t="s">
         <v>220</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="45" t="s">
+      <c r="G43" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="57"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
@@ -9114,43 +9117,43 @@
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
-      <c r="W43" s="59"/>
+      <c r="W43" s="60"/>
     </row>
     <row r="44" ht="58.5" customHeight="1" spans="2:23">
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="50">
         <v>12</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="G44" s="52" t="s">
+      <c r="G44" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="63"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -9187,8 +9190,8 @@
   <sheetPr/>
   <dimension ref="D3:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/EN020559200_DHU_ECP_V1.1_测试标注版.xlsx
+++ b/EN020559200_DHU_ECP_V1.1_测试标注版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="履历" sheetId="5" r:id="rId1"/>
@@ -1193,10 +1193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1239,7 +1239,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1247,29 +1247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,7 +1262,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,13 +1312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1313,47 +1320,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,16 +1336,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,61 +1494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,13 +1524,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,85 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,36 +2056,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2109,6 +2079,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2126,8 +2120,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2136,19 +2132,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,7 +2161,7 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2170,133 +2170,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7497,10 +7497,10 @@
   <sheetPr/>
   <dimension ref="B1:W44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9190,7 +9190,7 @@
   <sheetPr/>
   <dimension ref="D3:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -10058,7 +10058,7 @@
   <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
